--- a/individual_case_outputs/avey/246.xlsx
+++ b/individual_case_outputs/avey/246.xlsx
@@ -572,12 +572,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>obstructed inguinal hearnea</t>
+          <t>small bowel obstruction</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>strangulated inguinal hernia</t>
+          <t>small bowel obstruction</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -624,7 +624,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>large bowel obstruction</t>
+          <t>diverticulitis</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -717,7 +717,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>small bowel obstruction</t>
+          <t>small intestine perforation</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -833,7 +833,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>large bowel obstruction</t>
+          <t>diverticulitis</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
